--- a/ValvanoWareTM4C123/ValvanoWareTM4C123/CC3100GetWeather_4C123/Calculations.xlsx
+++ b/ValvanoWareTM4C123/ValvanoWareTM4C123/CC3100GetWeather_4C123/Calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\EE445L\EE445L\ValvanoWareTM4C123\ValvanoWareTM4C123\CC3100GetWeather_4C123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\EE445L\ValvanoWareTM4C123\ValvanoWareTM4C123\CC3100GetWeather_4C123\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +116,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,15 +154,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +543,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,266 +553,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <f>HEX2DEC(A2)</f>
         <v>10279306</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>HEX2DEC(E2)</f>
         <v>10365159</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B11" si="0">HEX2DEC(A3)</f>
         <v>10528196</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">HEX2DEC(E3)</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F11" si="1">HEX2DEC(E3)</f>
         <v>11783773</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>10278824</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>396944</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>3762500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>10297974</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>12165149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>15419538</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>3822280</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>15794200</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>12045833</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>386073</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>3694707</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>15434995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>10460836</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>3821186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>10608714</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>11953233</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>3920403</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>3819838</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <f>SUM(B2:B11)/10</f>
         <v>10128269.800000001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>B12*0.00002</f>
         <v>202.56539600000002</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f>SUM(F2:F11)/10</f>
         <v>8897394.5999999996</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>F12*0.00002</f>
         <v>177.947892</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f>MIN(B2:B11)</f>
         <v>3694707</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>B13*0.00002</f>
         <v>73.894140000000007</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>MIN(F2:F11)</f>
         <v>3762500</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" ref="G13:G14" si="2">F13*0.00002</f>
         <v>75.25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f>MAX(B2:B11)</f>
         <v>15794200</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>B14*0.00002</f>
         <v>315.88400000000001</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f>MAX(F2:F11)</f>
         <v>15434995</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>308.69990000000001</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
